--- a/mySystem/mySystem/xls/LDPE/SOP-MFG-111-R01A 产品外包装记录.xlsx
+++ b/mySystem/mySystem/xls/LDPE/SOP-MFG-111-R01A 产品外包装记录.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mySystem\mySystem\xls\CSBag\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\upload\mitcpro\mySystem\mySystem\xls\LDPE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>SOP-MFG-111-R01A</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -265,15 +265,11 @@
     <t>Kg/包</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
-  <si>
-    <t>审核员：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -347,7 +343,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -688,14 +684,66 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -703,10 +751,12 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -716,49 +766,18 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top style="medium">
         <color indexed="64"/>
@@ -787,7 +806,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -851,7 +870,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -866,15 +885,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -890,68 +900,80 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -971,7 +993,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1257,10 +1279,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1299,39 +1321,39 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
     </row>
     <row r="3" spans="1:12" s="6" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="45" t="s">
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="43" t="s">
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="44"/>
-      <c r="K3" s="40" t="s">
+      <c r="J3" s="35"/>
+      <c r="K3" s="31" t="s">
         <v>18</v>
       </c>
       <c r="L3" s="16" t="s">
@@ -1339,34 +1361,34 @@
       </c>
     </row>
     <row r="4" spans="1:12" s="6" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="32" t="s">
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="32" t="s">
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="33"/>
-      <c r="K4" s="41"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="32"/>
       <c r="L4" s="17" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="6" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="54"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="45"/>
       <c r="E5" s="19" t="s">
         <v>20</v>
       </c>
@@ -1375,11 +1397,11 @@
         <v>21</v>
       </c>
       <c r="H5" s="23"/>
-      <c r="I5" s="30" t="s">
+      <c r="I5" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="31"/>
-      <c r="K5" s="42"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="33"/>
       <c r="L5" s="18" t="s">
         <v>14</v>
       </c>
@@ -1604,61 +1626,44 @@
       <c r="K19" s="24"/>
       <c r="L19" s="25"/>
     </row>
-    <row r="20" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="14"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="25"/>
+    <row r="20" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="46"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="48"/>
     </row>
     <row r="21" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="34" t="s">
+      <c r="A21" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="21" t="s">
+      <c r="B21" s="50"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="G21" s="21" t="s">
+      <c r="G21" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="H21" s="37" t="s">
+      <c r="H21" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="39"/>
-    </row>
-    <row r="22" spans="1:12" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="28"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="55"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="A22:L22"/>
+  <mergeCells count="12">
     <mergeCell ref="A2:L2"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="I4:J4"/>

--- a/mySystem/mySystem/xls/LDPE/SOP-MFG-111-R01A 产品外包装记录.xlsx
+++ b/mySystem/mySystem/xls/LDPE/SOP-MFG-111-R01A 产品外包装记录.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\upload\mitcpro\mySystem\mySystem\xls\LDPE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ERPsystem\mitcpro\mySystem\mySystem\xls\LDPE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,33 +22,7 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>SOP-MFG-111-R01A</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>序号</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>包装明细</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -61,64 +35,51 @@
       </rPr>
       <t>颇尔奥星包装科技（北京）有限责任公司</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>包装箱号</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>合计</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>A</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>B</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>操作人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>复核人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> Kg/箱</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>------</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>只/箱</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>产品批号：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -143,133 +104,89 @@
       </rPr>
       <t>Product Packaging Record</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>纸箱代码:</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>包装规格</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>包装日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>领用数量:</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>退库数量:</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>外包标签：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>标签代码:SPM-LAB-10×10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>标签领用数量:</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>纸箱批号:</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>包装数量（箱）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>产品数量（只）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>贴标签（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Y/N</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>打包封箱（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Y/N</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>生产指令编号：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>产品代码：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Kg/包</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包装箱号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包装明细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴标签（Y/N）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打包封箱（Y/N）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -278,13 +195,6 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -330,9 +240,18 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新宋体"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -806,173 +725,158 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -993,7 +897,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1281,386 +1185,386 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3:K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="5" customWidth="1"/>
-    <col min="3" max="3" width="10" style="5" customWidth="1"/>
-    <col min="4" max="4" width="11.625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.75" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.75" style="10" customWidth="1"/>
-    <col min="7" max="7" width="9.875" style="5" customWidth="1"/>
-    <col min="8" max="8" width="9.125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="12.125" style="5" customWidth="1"/>
-    <col min="10" max="10" width="14.875" style="5" customWidth="1"/>
-    <col min="11" max="11" width="12.375" style="5" customWidth="1"/>
-    <col min="12" max="12" width="14.125" style="5" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="5.875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.25" style="3" customWidth="1"/>
+    <col min="3" max="3" width="10" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.75" style="6" customWidth="1"/>
+    <col min="7" max="7" width="9.875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="9.125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="14.875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="12.375" style="3" customWidth="1"/>
+    <col min="12" max="12" width="14.125" style="3" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.7" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+    </row>
+    <row r="3" spans="1:12" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="12"/>
+      <c r="K3" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="17"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="4" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="24"/>
+      <c r="G5" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="26"/>
+      <c r="I5" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="28"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="4" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="K6" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="L6" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="37"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="40"/>
+    </row>
+    <row r="8" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="37"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="40"/>
+    </row>
+    <row r="9" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="37"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="40"/>
+    </row>
+    <row r="10" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="37"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="40"/>
+    </row>
+    <row r="11" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="37"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="40"/>
+    </row>
+    <row r="12" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="37"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="40"/>
+    </row>
+    <row r="13" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="37"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="40"/>
+    </row>
+    <row r="14" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="37"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="40"/>
+    </row>
+    <row r="15" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="37"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="40"/>
+    </row>
+    <row r="16" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="37"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="40"/>
+    </row>
+    <row r="17" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="37"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="40"/>
+    </row>
+    <row r="18" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="37"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="40"/>
+    </row>
+    <row r="19" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="37"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="40"/>
+    </row>
+    <row r="20" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="41"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="44"/>
+    </row>
+    <row r="21" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-    </row>
-    <row r="3" spans="1:12" s="6" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="35"/>
-      <c r="K3" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" s="16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="6" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="30"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="6" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="22"/>
-      <c r="G5" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="23"/>
-      <c r="I5" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" s="28"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="6" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="K6" s="11" t="s">
+      <c r="H21" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="14"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="25"/>
-    </row>
-    <row r="8" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="14"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="25"/>
-    </row>
-    <row r="9" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="14"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="25"/>
-    </row>
-    <row r="10" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="14"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="25"/>
-    </row>
-    <row r="11" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="14"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="25"/>
-    </row>
-    <row r="12" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="14"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="25"/>
-    </row>
-    <row r="13" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="14"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="25"/>
-    </row>
-    <row r="14" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="14"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="25"/>
-    </row>
-    <row r="15" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="14"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="25"/>
-    </row>
-    <row r="16" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="14"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="25"/>
-    </row>
-    <row r="17" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="14"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="25"/>
-    </row>
-    <row r="18" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="14"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="25"/>
-    </row>
-    <row r="19" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="14"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="25"/>
-    </row>
-    <row r="20" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="46"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="47"/>
-      <c r="L20" s="48"/>
-    </row>
-    <row r="21" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="50"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="G21" s="52" t="s">
-        <v>8</v>
-      </c>
-      <c r="H21" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="I21" s="54"/>
-      <c r="J21" s="54"/>
-      <c r="K21" s="54"/>
-      <c r="L21" s="55"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -1677,7 +1581,7 @@
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="A3:D3"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.43307086614173229" right="0.23622047244094491" top="0.47244094488188981" bottom="0.23622047244094491" header="0.31496062992125984" footer="0.15748031496062992"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/mySystem/mySystem/xls/LDPE/SOP-MFG-111-R01A 产品外包装记录.xlsx
+++ b/mySystem/mySystem/xls/LDPE/SOP-MFG-111-R01A 产品外包装记录.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ERPsystem\mitcpro\mySystem\mySystem\xls\LDPE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mitcpro\mySystem\mySystem\xls\LDPE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -725,7 +725,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -747,9 +747,117 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -759,33 +867,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -795,88 +879,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1185,8 +1191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3:K5"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1225,346 +1231,346 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
     </row>
     <row r="3" spans="1:12" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="8" t="s">
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="11" t="s">
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="12"/>
-      <c r="K3" s="13" t="s">
+      <c r="J3" s="43"/>
+      <c r="K3" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="14" t="s">
+      <c r="L3" s="7" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="15" t="s">
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="15" t="s">
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="17"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="19" t="s">
+      <c r="J4" s="33"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="4" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="23" t="s">
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="24"/>
-      <c r="G5" s="25" t="s">
+      <c r="F5" s="10"/>
+      <c r="G5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="26"/>
-      <c r="I5" s="27" t="s">
+      <c r="H5" s="12"/>
+      <c r="I5" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="28"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="30" t="s">
+      <c r="J5" s="31"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="4" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="33" t="s">
+      <c r="D6" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="E6" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="34" t="s">
+      <c r="F6" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="34" t="s">
+      <c r="G6" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="34" t="s">
+      <c r="H6" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="I6" s="34" t="s">
+      <c r="I6" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="J6" s="35" t="s">
+      <c r="J6" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="35" t="s">
+      <c r="K6" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="L6" s="36" t="s">
+      <c r="L6" s="19" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="37"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="40"/>
+      <c r="A7" s="20"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="23"/>
     </row>
     <row r="8" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="37"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="40"/>
+      <c r="A8" s="20"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="23"/>
     </row>
     <row r="9" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="37"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="40"/>
+      <c r="A9" s="20"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="23"/>
     </row>
     <row r="10" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="37"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="40"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="23"/>
     </row>
     <row r="11" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="37"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="40"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="23"/>
     </row>
     <row r="12" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="37"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="40"/>
+      <c r="A12" s="20"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="23"/>
     </row>
     <row r="13" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="37"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="40"/>
+      <c r="A13" s="20"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="23"/>
     </row>
     <row r="14" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="37"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="40"/>
+      <c r="A14" s="20"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="23"/>
     </row>
     <row r="15" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="37"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="40"/>
+      <c r="A15" s="20"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="23"/>
     </row>
     <row r="16" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="37"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="40"/>
+      <c r="A16" s="20"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="23"/>
     </row>
     <row r="17" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="37"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="40"/>
+      <c r="A17" s="20"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="23"/>
     </row>
     <row r="18" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="37"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="39"/>
-      <c r="L18" s="40"/>
+      <c r="A18" s="20"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="23"/>
     </row>
     <row r="19" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="37"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="40"/>
+      <c r="A19" s="20"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="23"/>
     </row>
     <row r="20" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="41"/>
-      <c r="B20" s="42"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="43"/>
-      <c r="L20" s="44"/>
+      <c r="A20" s="24"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="27"/>
     </row>
     <row r="21" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="45" t="s">
+      <c r="A21" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="46"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="48" t="s">
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="G21" s="48" t="s">
+      <c r="G21" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="H21" s="49" t="s">
+      <c r="H21" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="I21" s="46"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="46"/>
-      <c r="L21" s="50"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="12">

--- a/mySystem/mySystem/xls/LDPE/SOP-MFG-111-R01A 产品外包装记录.xlsx
+++ b/mySystem/mySystem/xls/LDPE/SOP-MFG-111-R01A 产品外包装记录.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>SOP-MFG-111-R01A</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -119,23 +119,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>领用数量:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>退库数量:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>外包标签：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>标签代码:SPM-LAB-10×10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标签领用数量:</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -262,7 +250,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -494,47 +482,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -719,6 +668,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -753,137 +724,137 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1192,7 +1163,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="I4" sqref="I4:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1231,361 +1202,354 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
     </row>
     <row r="3" spans="1:12" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="44" t="s">
+      <c r="A3" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="42" t="s">
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="39"/>
+      <c r="K3" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="43"/>
-      <c r="K3" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="33"/>
-      <c r="K4" s="40"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="49"/>
+      <c r="K4" s="36"/>
       <c r="L4" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="4" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="12"/>
-      <c r="I5" s="30" t="s">
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="4" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="31"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="4" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="14" t="s">
+      <c r="H6" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="16" t="s">
+      <c r="I6" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="J6" s="18" t="s">
+      <c r="J6" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="18" t="s">
+      <c r="K6" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="L6" s="19" t="s">
+      <c r="L6" s="15" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="20"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="23"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="19"/>
     </row>
     <row r="8" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="20"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="23"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="19"/>
     </row>
     <row r="9" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="20"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="23"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="19"/>
     </row>
     <row r="10" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="20"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="23"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="19"/>
     </row>
     <row r="11" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="20"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="23"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="19"/>
     </row>
     <row r="12" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="20"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="23"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="19"/>
     </row>
     <row r="13" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="20"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="23"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="19"/>
     </row>
     <row r="14" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="20"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="23"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="19"/>
     </row>
     <row r="15" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="20"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="23"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="19"/>
     </row>
     <row r="16" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="20"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="23"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="19"/>
     </row>
     <row r="17" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="20"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="23"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="19"/>
     </row>
     <row r="18" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="20"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="23"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="19"/>
     </row>
     <row r="19" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="20"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="23"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="19"/>
     </row>
     <row r="20" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="24"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="27"/>
+      <c r="A20" s="20"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="23"/>
     </row>
     <row r="21" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="34" t="s">
+      <c r="A21" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="28" t="s">
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="G21" s="28" t="s">
+      <c r="G21" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="H21" s="37" t="s">
+      <c r="H21" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="38"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="11">
     <mergeCell ref="A2:L2"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I4:J4"/>
     <mergeCell ref="A21:E21"/>
     <mergeCell ref="H21:L21"/>
     <mergeCell ref="K3:K5"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="E3:H3"/>
-    <mergeCell ref="E4:H4"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E4:H5"/>
+    <mergeCell ref="I4:J5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/mySystem/mySystem/xls/LDPE/SOP-MFG-111-R01A 产品外包装记录.xlsx
+++ b/mySystem/mySystem/xls/LDPE/SOP-MFG-111-R01A 产品外包装记录.xlsx
@@ -14,12 +14,15 @@
   <sheets>
     <sheet name="20170830" sheetId="8" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'20170830'!$6:$6</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>SOP-MFG-111-R01A</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -124,10 +127,6 @@
   </si>
   <si>
     <t>标签代码:SPM-LAB-10×10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纸箱批号:</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -250,7 +249,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -283,16 +282,192 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -307,7 +482,7 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -316,13 +491,24 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -331,356 +517,88 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -696,7 +614,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -718,143 +636,122 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1160,10 +1057,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4:J5"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1202,358 +1099,173 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
     </row>
     <row r="3" spans="1:12" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="40" t="s">
+      <c r="A3" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="38" t="s">
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="39"/>
-      <c r="K3" s="35" t="s">
+      <c r="J3" s="24"/>
+      <c r="K3" s="21" t="s">
         <v>15</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="47" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="47" t="s">
+      <c r="A4" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="49"/>
-      <c r="K4" s="36"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="22"/>
       <c r="L4" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="4" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="44" t="s">
+    <row r="5" spans="1:12" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="9" t="s">
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="43" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="4" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="12" t="s">
+      <c r="E6" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="F6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="13" t="s">
+      <c r="I6" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" s="14" t="s">
+      <c r="J6" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="14" t="s">
+      <c r="K6" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="L6" s="15" t="s">
+      <c r="L6" s="45" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="16"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="19"/>
+    <row r="7" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="9"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="12"/>
     </row>
-    <row r="8" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="16"/>
+    <row r="8" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="16" t="s">
+        <v>3</v>
+      </c>
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
       <c r="D8" s="17"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>10</v>
+      </c>
       <c r="I8" s="17"/>
       <c r="J8" s="17"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="19"/>
-    </row>
-    <row r="9" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="16"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="19"/>
-    </row>
-    <row r="10" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="16"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="19"/>
-    </row>
-    <row r="11" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="16"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="19"/>
-    </row>
-    <row r="12" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="16"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="19"/>
-    </row>
-    <row r="13" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="16"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="19"/>
-    </row>
-    <row r="14" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="16"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="19"/>
-    </row>
-    <row r="15" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="16"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="19"/>
-    </row>
-    <row r="16" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="16"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="19"/>
-    </row>
-    <row r="17" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="16"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="19"/>
-    </row>
-    <row r="18" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="16"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="19"/>
-    </row>
-    <row r="19" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="16"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="19"/>
-    </row>
-    <row r="20" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="20"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="23"/>
-    </row>
-    <row r="21" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="G21" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="34"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="10">
     <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="H8:L8"/>
     <mergeCell ref="K3:K5"/>
     <mergeCell ref="I3:J3"/>
-    <mergeCell ref="E3:H3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E4:H5"/>
     <mergeCell ref="I4:J5"/>
+    <mergeCell ref="E3:H5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.43307086614173229" right="0.23622047244094491" top="0.47244094488188981" bottom="0.23622047244094491" header="0.31496062992125984" footer="0.15748031496062992"/>
+  <pageMargins left="0.43307086614173229" right="0.23622047244094491" top="0.47244094488188981" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.15748031496062992"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>